--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H2">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I2">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J2">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N2">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O2">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P2">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q2">
-        <v>32.3667999601925</v>
+        <v>157.2705249740715</v>
       </c>
       <c r="R2">
-        <v>129.46719984077</v>
+        <v>629.0820998962861</v>
       </c>
       <c r="S2">
-        <v>0.0009697324532279725</v>
+        <v>0.008274982825333154</v>
       </c>
       <c r="T2">
-        <v>0.0004881218496263549</v>
+        <v>0.004646178455169998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H3">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I3">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J3">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>255.856579</v>
       </c>
       <c r="O3">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P3">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q3">
-        <v>1505.377810303088</v>
+        <v>1759.046986123691</v>
       </c>
       <c r="R3">
-        <v>9032.266861818531</v>
+        <v>10554.28191674215</v>
       </c>
       <c r="S3">
-        <v>0.04510219480503395</v>
+        <v>0.09255442875597565</v>
       </c>
       <c r="T3">
-        <v>0.03405377433305173</v>
+        <v>0.0779502027786869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H4">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I4">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J4">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N4">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O4">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P4">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q4">
-        <v>578.5565349469751</v>
+        <v>312.812010005675</v>
       </c>
       <c r="R4">
-        <v>3471.33920968185</v>
+        <v>1876.87206003405</v>
       </c>
       <c r="S4">
-        <v>0.01733396717176944</v>
+        <v>0.01645899007955661</v>
       </c>
       <c r="T4">
-        <v>0.01308776676868241</v>
+        <v>0.01386191489136062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H5">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I5">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J5">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N5">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O5">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P5">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q5">
-        <v>832.00232764423</v>
+        <v>1435.404399775833</v>
       </c>
       <c r="R5">
-        <v>3328.00931057692</v>
+        <v>5741.617599103332</v>
       </c>
       <c r="S5">
-        <v>0.02492738421067635</v>
+        <v>0.07552557453159725</v>
       </c>
       <c r="T5">
-        <v>0.01254737927637622</v>
+        <v>0.04240556199449459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H6">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I6">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J6">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N6">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O6">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P6">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q6">
-        <v>53.71891868818832</v>
+        <v>42.037096253988</v>
       </c>
       <c r="R6">
-        <v>322.3135121291299</v>
+        <v>252.222577523928</v>
       </c>
       <c r="S6">
-        <v>0.001609457186633195</v>
+        <v>0.002211833715096818</v>
       </c>
       <c r="T6">
-        <v>0.001215197887136923</v>
+        <v>0.001862826975671888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H7">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I7">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J7">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N7">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O7">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P7">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q7">
-        <v>1423.59967671266</v>
+        <v>156.67779604003</v>
       </c>
       <c r="R7">
-        <v>8541.598060275959</v>
+        <v>940.06677624018</v>
       </c>
       <c r="S7">
-        <v>0.04265206349132408</v>
+        <v>0.008243795660732032</v>
       </c>
       <c r="T7">
-        <v>0.03220383733543788</v>
+        <v>0.006943001561971524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>105.757912</v>
       </c>
       <c r="I8">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J8">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N8">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O8">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P8">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q8">
-        <v>64.64295496763867</v>
+        <v>268.8046910408947</v>
       </c>
       <c r="R8">
-        <v>387.857729805832</v>
+        <v>1612.828146245368</v>
       </c>
       <c r="S8">
-        <v>0.001936749118904888</v>
+        <v>0.01414349066424943</v>
       </c>
       <c r="T8">
-        <v>0.001462315031896466</v>
+        <v>0.01191177969650132</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>105.757912</v>
       </c>
       <c r="I9">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J9">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>255.856579</v>
       </c>
       <c r="O9">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P9">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q9">
         <v>3006.53972961145</v>
@@ -1013,10 +1013,10 @@
         <v>27058.85756650305</v>
       </c>
       <c r="S9">
-        <v>0.09007807850356719</v>
+        <v>0.1581927995110224</v>
       </c>
       <c r="T9">
-        <v>0.1020182688772286</v>
+        <v>0.1998471758578524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>105.757912</v>
       </c>
       <c r="I10">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J10">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N10">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O10">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P10">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q10">
-        <v>1155.492791403773</v>
+        <v>534.6541299923778</v>
       </c>
       <c r="R10">
-        <v>10399.43512263396</v>
+        <v>4811.8871699314</v>
       </c>
       <c r="S10">
-        <v>0.03461938964226708</v>
+        <v>0.02813148709149265</v>
       </c>
       <c r="T10">
-        <v>0.03920832082081415</v>
+        <v>0.03553890104539627</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>105.757912</v>
       </c>
       <c r="I11">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J11">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N11">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O11">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P11">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q11">
-        <v>1661.674588313445</v>
+        <v>2453.374122481603</v>
       </c>
       <c r="R11">
-        <v>9970.047529880672</v>
+        <v>14720.24473488962</v>
       </c>
       <c r="S11">
-        <v>0.04978495794992378</v>
+        <v>0.1290873081971279</v>
       </c>
       <c r="T11">
-        <v>0.03758942841996575</v>
+        <v>0.1087185344382702</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>105.757912</v>
       </c>
       <c r="I12">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J12">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N12">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O12">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P12">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q12">
-        <v>107.2873946742231</v>
+        <v>71.84924621236267</v>
       </c>
       <c r="R12">
-        <v>965.5865520680079</v>
+        <v>646.6432159112641</v>
       </c>
       <c r="S12">
-        <v>0.003214407002416969</v>
+        <v>0.003780436788892612</v>
       </c>
       <c r="T12">
-        <v>0.00364048882148873</v>
+        <v>0.004775878662648454</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>105.757912</v>
       </c>
       <c r="I13">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J13">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N13">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O13">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P13">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q13">
-        <v>2843.21248646337</v>
+        <v>267.7916066246489</v>
       </c>
       <c r="R13">
-        <v>25588.91237817033</v>
+        <v>2410.12445962184</v>
       </c>
       <c r="S13">
-        <v>0.08518467759980956</v>
+        <v>0.01409018597701431</v>
       </c>
       <c r="T13">
-        <v>0.0964762291555015</v>
+        <v>0.01780032898793237</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H14">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I14">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J14">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N14">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O14">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P14">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q14">
-        <v>54.39712059650734</v>
+        <v>77.71057108956802</v>
       </c>
       <c r="R14">
-        <v>326.382723579044</v>
+        <v>466.2634265374081</v>
       </c>
       <c r="S14">
-        <v>0.001629776600388863</v>
+        <v>0.00408883763323753</v>
       </c>
       <c r="T14">
-        <v>0.001230539773127318</v>
+        <v>0.003443657174745554</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H15">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I15">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J15">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>255.856579</v>
       </c>
       <c r="O15">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P15">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q15">
-        <v>2530.006623795879</v>
+        <v>869.1809599261655</v>
       </c>
       <c r="R15">
-        <v>22770.05961416291</v>
+        <v>7822.628639335489</v>
       </c>
       <c r="S15">
-        <v>0.07580080616539288</v>
+        <v>0.04573302922897594</v>
       </c>
       <c r="T15">
-        <v>0.08584849003173949</v>
+        <v>0.05777517537515125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H16">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I16">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J16">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N16">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O16">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P16">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q16">
-        <v>972.3485065596467</v>
+        <v>154.5667883109334</v>
       </c>
       <c r="R16">
-        <v>8751.13655903682</v>
+        <v>1391.1010947984</v>
       </c>
       <c r="S16">
-        <v>0.02913225600981016</v>
+        <v>0.008132722382981477</v>
       </c>
       <c r="T16">
-        <v>0.03299384684911296</v>
+        <v>0.01027418191787892</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H17">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I17">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J17">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N17">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O17">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P17">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q17">
-        <v>1398.30106804197</v>
+        <v>709.2625631500161</v>
       </c>
       <c r="R17">
-        <v>8389.806408251823</v>
+        <v>4255.575378900096</v>
       </c>
       <c r="S17">
-        <v>0.04189409909942698</v>
+        <v>0.03731872535992217</v>
       </c>
       <c r="T17">
-        <v>0.03163154704079193</v>
+        <v>0.0314301784187744</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H18">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I18">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J18">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N18">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O18">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P18">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q18">
-        <v>90.2824654210262</v>
+        <v>20.77138584857601</v>
       </c>
       <c r="R18">
-        <v>812.5421887892359</v>
+        <v>186.942472637184</v>
       </c>
       <c r="S18">
-        <v>0.002704927171789541</v>
+        <v>0.001092912109142334</v>
       </c>
       <c r="T18">
-        <v>0.003063475510237696</v>
+        <v>0.001380691151228573</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H19">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I19">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J19">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N19">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O19">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P19">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q19">
-        <v>2392.566561740101</v>
+        <v>77.41769164522668</v>
       </c>
       <c r="R19">
-        <v>21533.09905566091</v>
+        <v>696.7592248070401</v>
       </c>
       <c r="S19">
-        <v>0.07168300370382504</v>
+        <v>0.004073427419707581</v>
       </c>
       <c r="T19">
-        <v>0.0811848572624092</v>
+        <v>0.005146017823862948</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H20">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I20">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J20">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N20">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O20">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P20">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q20">
-        <v>8.315189724256252</v>
+        <v>33.81047346046975</v>
       </c>
       <c r="R20">
-        <v>33.26075889702501</v>
+        <v>135.241893841879</v>
       </c>
       <c r="S20">
-        <v>0.0002491290254296454</v>
+        <v>0.001778979800874295</v>
       </c>
       <c r="T20">
-        <v>0.0001254008982410963</v>
+        <v>0.0009988489157585646</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H21">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I21">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J21">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>255.856579</v>
       </c>
       <c r="O21">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P21">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q21">
-        <v>386.7389459183709</v>
+        <v>378.1650213850282</v>
       </c>
       <c r="R21">
-        <v>2320.433675510225</v>
+        <v>2268.990128310169</v>
       </c>
       <c r="S21">
-        <v>0.01158697514877808</v>
+        <v>0.01989761945296977</v>
       </c>
       <c r="T21">
-        <v>0.008748581718136863</v>
+        <v>0.01675796060782234</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H22">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I22">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J22">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N22">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O22">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P22">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q22">
-        <v>148.6340126366875</v>
+        <v>67.24923290080417</v>
       </c>
       <c r="R22">
-        <v>891.8040758201251</v>
+        <v>403.495397404825</v>
       </c>
       <c r="S22">
-        <v>0.004453181219167865</v>
+        <v>0.003538401409690272</v>
       </c>
       <c r="T22">
-        <v>0.003362311500743218</v>
+        <v>0.002980074655584111</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H23">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I23">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J23">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N23">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O23">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P23">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q23">
-        <v>213.745480365475</v>
+        <v>308.5873997792245</v>
       </c>
       <c r="R23">
-        <v>854.9819214619001</v>
+        <v>1234.349599116898</v>
       </c>
       <c r="S23">
-        <v>0.006403967315154091</v>
+        <v>0.01623670699712036</v>
       </c>
       <c r="T23">
-        <v>0.003223483302445351</v>
+        <v>0.009116470671332345</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H24">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I24">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J24">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N24">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O24">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P24">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q24">
-        <v>13.80065379412083</v>
+        <v>9.037256838082001</v>
       </c>
       <c r="R24">
-        <v>82.803922764725</v>
+        <v>54.22354102849201</v>
       </c>
       <c r="S24">
-        <v>0.0004134774483848333</v>
+        <v>0.0004755064252222871</v>
       </c>
       <c r="T24">
-        <v>0.0003121902998284157</v>
+        <v>0.0004004759444453132</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H25">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I25">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J25">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N25">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O25">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P25">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q25">
-        <v>365.72974213745</v>
+        <v>33.68304687562834</v>
       </c>
       <c r="R25">
-        <v>2194.3784528247</v>
+        <v>202.09828125377</v>
       </c>
       <c r="S25">
-        <v>0.01095752439220358</v>
+        <v>0.001772275093802024</v>
       </c>
       <c r="T25">
-        <v>0.008273323826346541</v>
+        <v>0.001492626606833924</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H26">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I26">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J26">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N26">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O26">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P26">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q26">
-        <v>24.0651053915635</v>
+        <v>50.96090336487116</v>
       </c>
       <c r="R26">
-        <v>144.390632349381</v>
+        <v>305.765420189227</v>
       </c>
       <c r="S26">
-        <v>0.0007210077523033508</v>
+        <v>0.002681370842866426</v>
       </c>
       <c r="T26">
-        <v>0.0005443867065772763</v>
+        <v>0.002258275522151088</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H27">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I27">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J27">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>255.856579</v>
       </c>
       <c r="O27">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P27">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q27">
-        <v>1119.266523215768</v>
+        <v>569.9899805694441</v>
       </c>
       <c r="R27">
-        <v>10073.39870894191</v>
+        <v>5129.909825124997</v>
       </c>
       <c r="S27">
-        <v>0.03353402476330299</v>
+        <v>0.02999072649246731</v>
       </c>
       <c r="T27">
-        <v>0.03797908671756144</v>
+        <v>0.03788770418104431</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H28">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I28">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J28">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N28">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O28">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P28">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q28">
-        <v>430.163748211145</v>
+        <v>101.3615400336361</v>
       </c>
       <c r="R28">
-        <v>3871.473733900305</v>
+        <v>912.2538603027249</v>
       </c>
       <c r="S28">
-        <v>0.01288801325294972</v>
+        <v>0.005333262561856018</v>
       </c>
       <c r="T28">
-        <v>0.01459636820828324</v>
+        <v>0.006737585177011018</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H29">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I29">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J29">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N29">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O29">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P29">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q29">
-        <v>618.603745980746</v>
+        <v>465.1189720295457</v>
       </c>
       <c r="R29">
-        <v>3711.622475884476</v>
+        <v>2790.713832177274</v>
       </c>
       <c r="S29">
-        <v>0.0185338102284967</v>
+        <v>0.02447280891264046</v>
       </c>
       <c r="T29">
-        <v>0.0139936912999717</v>
+        <v>0.02061122782502415</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H30">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I30">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J30">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N30">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O30">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P30">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q30">
-        <v>39.94066269578766</v>
+        <v>13.62142334231067</v>
       </c>
       <c r="R30">
-        <v>359.465964262089</v>
+        <v>122.592810080796</v>
       </c>
       <c r="S30">
-        <v>0.001196650792391364</v>
+        <v>0.0007167080050937456</v>
       </c>
       <c r="T30">
-        <v>0.001355271385873271</v>
+        <v>0.0009054272455853491</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H31">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I31">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J31">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N31">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O31">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P31">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q31">
-        <v>1058.463496472332</v>
+        <v>50.76883939144556</v>
       </c>
       <c r="R31">
-        <v>9526.171468250988</v>
+        <v>456.91955452301</v>
       </c>
       <c r="S31">
-        <v>0.03171232263766451</v>
+        <v>0.00267126515979756</v>
       </c>
       <c r="T31">
-        <v>0.03591591107754993</v>
+        <v>0.003374646632483551</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H32">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I32">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J32">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N32">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O32">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P32">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q32">
-        <v>60.315917312827</v>
+        <v>185.1469249543535</v>
       </c>
       <c r="R32">
-        <v>361.895503876962</v>
+        <v>1110.881549726121</v>
       </c>
       <c r="S32">
-        <v>0.0018071079790526</v>
+        <v>0.009741734024306907</v>
       </c>
       <c r="T32">
-        <v>0.001364431322691328</v>
+        <v>0.008204579216980252</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H33">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I33">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J33">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>255.856579</v>
       </c>
       <c r="O33">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P33">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q33">
-        <v>2805.289483127069</v>
+        <v>2070.840294993092</v>
       </c>
       <c r="R33">
-        <v>25247.60534814362</v>
+        <v>18637.56265493783</v>
       </c>
       <c r="S33">
-        <v>0.08404847732346732</v>
+        <v>0.1089598186176389</v>
       </c>
       <c r="T33">
-        <v>0.09518942123046704</v>
+        <v>0.1376504626002383</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H34">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I34">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J34">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N34">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O34">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P34">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q34">
-        <v>1078.14699524129</v>
+        <v>368.2583354439083</v>
       </c>
       <c r="R34">
-        <v>9703.322957171611</v>
+        <v>3314.325018995175</v>
       </c>
       <c r="S34">
-        <v>0.03230205432485038</v>
+        <v>0.01937636694216235</v>
       </c>
       <c r="T34">
-        <v>0.03658381393280861</v>
+        <v>0.02447843532541306</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H35">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I35">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J35">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N35">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O35">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P35">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q35">
-        <v>1550.446249242692</v>
+        <v>1689.831649816517</v>
       </c>
       <c r="R35">
-        <v>9302.677495456152</v>
+        <v>10138.9898988991</v>
       </c>
       <c r="S35">
-        <v>0.04645247743754035</v>
+        <v>0.08891257838836258</v>
       </c>
       <c r="T35">
-        <v>0.03507328613845238</v>
+        <v>0.07488300244629065</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H36">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I36">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J36">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N36">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O36">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P36">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q36">
-        <v>100.1058449311086</v>
+        <v>49.48822487061201</v>
       </c>
       <c r="R36">
-        <v>900.9526043799779</v>
+        <v>445.3940238355081</v>
       </c>
       <c r="S36">
-        <v>0.002999242640820078</v>
+        <v>0.002603884045837923</v>
       </c>
       <c r="T36">
-        <v>0.003396803609072486</v>
+        <v>0.003289523128932105</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H37">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I37">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J37">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N37">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O37">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P37">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q37">
-        <v>2652.894956955064</v>
+        <v>184.4491340651367</v>
       </c>
       <c r="R37">
-        <v>23876.05461259558</v>
+        <v>1660.04220658623</v>
       </c>
       <c r="S37">
-        <v>0.07948262843185469</v>
+        <v>0.009705018895233007</v>
       </c>
       <c r="T37">
-        <v>0.09001835178032455</v>
+        <v>0.01226048608947129</v>
       </c>
     </row>
   </sheetData>
